--- a/icra_mostcited.xlsx
+++ b/icra_mostcited.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
-    <sheet name="prepared" sheetId="2" r:id="rId1"/>
+    <sheet name="icra_results" sheetId="2" r:id="rId1"/>
     <sheet name="icra_bibliography" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ICRA2020mostcited" localSheetId="0">prepared!$N$3:$DI$28</definedName>
+    <definedName name="ICRA2020mostcited" localSheetId="0">icra_results!$N$3:$DI$28</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1005,7 +1005,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN36"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -2601,7 +2601,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:A27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
